--- a/docs/assets/language-file.xlsx
+++ b/docs/assets/language-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas.gourouza/Documents/perso/langues/russian-voc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5BEF96-40D4-624A-9F64-2D27842069EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C5DED-35EA-DC40-B066-7B171F47EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="5" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
+    <workbookView xWindow="5440" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
   </bookViews>
   <sheets>
     <sheet name="adjectives" sheetId="1" r:id="rId1"/>
@@ -6781,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B40D6C6-14DC-254F-A6C4-6A36F011AECA}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
@@ -8178,8 +8178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB28EE-E8CD-B544-9C3A-964FA168499D}">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8633,11 +8633,11 @@
       <c r="B27" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="33" t="s">
         <v>216</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>217</v>
       </c>
       <c r="E27" s="30">
         <v>2</v>
@@ -8770,10 +8770,10 @@
         <v>165</v>
       </c>
       <c r="C35" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="35" t="s">
         <v>171</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>230</v>
       </c>
       <c r="E35" s="30">
         <v>2</v>
@@ -8804,10 +8804,10 @@
         <v>165</v>
       </c>
       <c r="C37" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>234</v>
       </c>
       <c r="E37" s="30">
         <v>2</v>
@@ -8889,10 +8889,10 @@
         <v>165</v>
       </c>
       <c r="C42" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="36" t="s">
         <v>243</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>244</v>
       </c>
       <c r="E42" s="25">
         <v>3</v>
@@ -9986,7 +9986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="68">
+    <row r="107" spans="1:5" ht="85">
       <c r="A107" t="s">
         <v>0</v>
       </c>
@@ -19699,7 +19699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882F9811-2254-B74E-AA83-7675B912ED54}">
   <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E281"/>
     </sheetView>
   </sheetViews>

--- a/docs/assets/language-file.xlsx
+++ b/docs/assets/language-file.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas.gourouza/Documents/perso/langues/russian-voc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C5DED-35EA-DC40-B066-7B171F47EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C647FE96-2C38-034E-A2A0-EF79BE9F21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
+    <workbookView xWindow="5440" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
   </bookViews>
   <sheets>
-    <sheet name="adjectives" sheetId="1" r:id="rId1"/>
-    <sheet name="adverbs" sheetId="2" r:id="rId2"/>
-    <sheet name="conjunctions" sheetId="3" r:id="rId3"/>
-    <sheet name="expressions" sheetId="4" r:id="rId4"/>
-    <sheet name="nouns" sheetId="5" r:id="rId5"/>
-    <sheet name="verbs" sheetId="6" r:id="rId6"/>
+    <sheet name="Russian - Adjectives" sheetId="1" r:id="rId1"/>
+    <sheet name="Russian - Adverbs" sheetId="2" r:id="rId2"/>
+    <sheet name="Russian - Conjunctions" sheetId="3" r:id="rId3"/>
+    <sheet name="Russian - Expressions" sheetId="4" r:id="rId4"/>
+    <sheet name="Russian - Nouns" sheetId="5" r:id="rId5"/>
+    <sheet name="Russian - Verbs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -8178,7 +8178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EB28EE-E8CD-B544-9C3A-964FA168499D}">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
@@ -10846,8 +10846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDDFAEA-4718-6141-8AD3-3399454A9EC9}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19700,7 +19700,7 @@
   <dimension ref="A1:E281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E281"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24484,5 +24484,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/assets/language-file.xlsx
+++ b/docs/assets/language-file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas.gourouza/Documents/perso/langues/russian-voc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C647FE96-2C38-034E-A2A0-EF79BE9F21AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E928EE-E473-5A4E-8D85-1BC0CD115FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
+    <workbookView xWindow="5440" yWindow="1260" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
   </bookViews>
   <sheets>
     <sheet name="Russian - Adjectives" sheetId="1" r:id="rId1"/>
@@ -6781,8 +6781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B40D6C6-14DC-254F-A6C4-6A36F011AECA}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10846,7 +10846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDDFAEA-4718-6141-8AD3-3399454A9EC9}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -12137,8 +12137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6BABB1-C836-9C4B-907B-650C7BE15CF0}">
   <dimension ref="A1:E202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12151,10 +12151,10 @@
         <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>

--- a/docs/assets/language-file.xlsx
+++ b/docs/assets/language-file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas.gourouza/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas.gourouza/Documents/perso/vocabulary/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2512C5D-F6E2-7C4B-BF43-F903CDC2028D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C300A4CD-94C8-254F-A688-B8F38F54986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="5" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
+    <workbookView xWindow="73460" yWindow="1120" windowWidth="33600" windowHeight="20500" activeTab="5" xr2:uid="{B1898BFB-CE60-944F-9D77-C4636BC9C62B}"/>
   </bookViews>
   <sheets>
     <sheet name="Russian - Adjectives" sheetId="1" r:id="rId1"/>
@@ -5584,9 +5584,6 @@
     <t>laisser tranquille</t>
   </si>
   <si>
-    <t>sentir (nez)</t>
-  </si>
-  <si>
     <t>payer</t>
   </si>
   <si>
@@ -6053,6 +6050,9 @@
   </si>
   <si>
     <t>tag</t>
+  </si>
+  <si>
+    <t>sentir (odeur)</t>
   </si>
 </sst>
 </file>
@@ -6812,7 +6812,7 @@
         <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -6977,7 +6977,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="41" spans="1:5" ht="17">
       <c r="A41" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B41" t="s">
         <v>163</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="79" spans="1:5" ht="17">
       <c r="A79" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B79" t="s">
         <v>163</v>
@@ -8210,7 +8210,7 @@
         <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
@@ -8436,7 +8436,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B15" t="s">
         <v>163</v>
@@ -8674,13 +8674,13 @@
     </row>
     <row r="29" spans="1:5" ht="17">
       <c r="A29" s="85" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>1981</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>1982</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>218</v>
@@ -8765,7 +8765,7 @@
         <v>163</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>225</v>
@@ -8782,7 +8782,7 @@
         <v>163</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>169</v>
@@ -8946,13 +8946,13 @@
     </row>
     <row r="45" spans="1:5" ht="17">
       <c r="A45" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B45" t="s">
         <v>163</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>242</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="59" spans="1:5" ht="17">
       <c r="A59" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B59" t="s">
         <v>163</v>
@@ -9309,7 +9309,7 @@
         <v>163</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D66" s="41" t="s">
         <v>282</v>
@@ -9541,7 +9541,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B80" t="s">
         <v>163</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="106" spans="1:5" ht="17">
       <c r="A106" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B106" t="s">
         <v>163</v>
@@ -10221,13 +10221,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B120" t="s">
         <v>163</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D120" s="41" t="s">
         <v>387</v>
@@ -10323,13 +10323,13 @@
     </row>
     <row r="126" spans="1:5" ht="17">
       <c r="A126" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B126" t="s">
         <v>163</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="D126" s="43" t="s">
         <v>397</v>
@@ -10380,7 +10380,7 @@
         <v>163</v>
       </c>
       <c r="C129" s="45" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D129" s="45" t="s">
         <v>402</v>
@@ -10397,7 +10397,7 @@
         <v>163</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>403</v>
@@ -10465,7 +10465,7 @@
         <v>163</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>410</v>
@@ -10516,7 +10516,7 @@
         <v>163</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>415</v>
@@ -10646,13 +10646,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B145" t="s">
         <v>163</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="D145" s="11" t="s">
         <v>425</v>
@@ -10881,7 +10881,7 @@
         <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
@@ -12175,7 +12175,7 @@
         <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
@@ -12486,7 +12486,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B20" t="s">
         <v>163</v>
@@ -12571,7 +12571,7 @@
     </row>
     <row r="25" spans="1:5" ht="17">
       <c r="A25" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B25" t="s">
         <v>163</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B37" t="s">
         <v>163</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B40" t="s">
         <v>163</v>
@@ -12849,10 +12849,10 @@
         <v>163</v>
       </c>
       <c r="C41" s="46" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>1994</v>
-      </c>
-      <c r="D41" s="46" t="s">
-        <v>1995</v>
       </c>
       <c r="E41" s="59">
         <v>2</v>
@@ -13064,7 +13064,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B54" t="s">
         <v>163</v>
@@ -13132,7 +13132,7 @@
     </row>
     <row r="58" spans="1:5" ht="17">
       <c r="A58" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B58" t="s">
         <v>163</v>
@@ -13200,7 +13200,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B62" t="s">
         <v>163</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B67" t="s">
         <v>163</v>
@@ -13608,7 +13608,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B86" t="s">
         <v>163</v>
@@ -13642,7 +13642,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B88" t="s">
         <v>163</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B96" t="s">
         <v>163</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B105" t="s">
         <v>163</v>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B106" t="s">
         <v>163</v>
@@ -13965,7 +13965,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B107" t="s">
         <v>163</v>
@@ -14135,7 +14135,7 @@
     </row>
     <row r="117" spans="1:5" ht="17">
       <c r="A117" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B117" t="s">
         <v>163</v>
@@ -14203,7 +14203,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B121" t="s">
         <v>163</v>
@@ -14390,7 +14390,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B132" t="s">
         <v>163</v>
@@ -14441,7 +14441,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B135" t="s">
         <v>163</v>
@@ -14594,7 +14594,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B144" t="s">
         <v>163</v>
@@ -14781,7 +14781,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B155" t="s">
         <v>163</v>
@@ -15206,7 +15206,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B180" t="s">
         <v>163</v>
@@ -15512,7 +15512,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B198" t="s">
         <v>163</v>
@@ -15529,16 +15529,16 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B199" t="s">
         <v>163</v>
       </c>
       <c r="C199" s="46" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D199" s="46" t="s">
         <v>1996</v>
-      </c>
-      <c r="D199" s="46" t="s">
-        <v>1997</v>
       </c>
       <c r="E199" s="59">
         <v>10</v>
@@ -15546,13 +15546,13 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B200" t="s">
         <v>163</v>
       </c>
       <c r="C200" s="46" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="D200" s="46" t="s">
         <v>959</v>
@@ -15608,7 +15608,7 @@
         <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17">
@@ -19700,8 +19700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882F9811-2254-B74E-AA83-7675B912ED54}">
   <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19723,7 +19723,7 @@
         <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20102,13 +20102,13 @@
     </row>
     <row r="24" spans="1:5" ht="17">
       <c r="A24" s="85" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B24" t="s">
         <v>163</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="D24" t="s">
         <v>1463</v>
@@ -21009,7 +21009,7 @@
         <v>163</v>
       </c>
       <c r="C77" s="65" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="D77" t="s">
         <v>1516</v>
@@ -21658,7 +21658,7 @@
         <v>1823</v>
       </c>
       <c r="D115" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E115" s="30">
         <v>6</v>
@@ -22063,7 +22063,7 @@
         <v>163</v>
       </c>
       <c r="C139" s="53" t="s">
-        <v>1847</v>
+        <v>2003</v>
       </c>
       <c r="D139" t="s">
         <v>1577</v>
@@ -22080,7 +22080,7 @@
         <v>163</v>
       </c>
       <c r="C140" s="71" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D140" t="s">
         <v>1578</v>
@@ -22097,7 +22097,7 @@
         <v>163</v>
       </c>
       <c r="C141" s="54" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D141" t="s">
         <v>1579</v>
@@ -22114,7 +22114,7 @@
         <v>163</v>
       </c>
       <c r="C142" s="53" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D142" t="s">
         <v>1580</v>
@@ -22131,7 +22131,7 @@
         <v>163</v>
       </c>
       <c r="C143" s="71" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D143" t="s">
         <v>1581</v>
@@ -22165,7 +22165,7 @@
         <v>163</v>
       </c>
       <c r="C145" s="71" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D145" t="s">
         <v>1583</v>
@@ -22182,7 +22182,7 @@
         <v>163</v>
       </c>
       <c r="C146" s="72" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D146" t="s">
         <v>1584</v>
@@ -22199,7 +22199,7 @@
         <v>163</v>
       </c>
       <c r="C147" s="71" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D147" t="s">
         <v>1585</v>
@@ -22216,7 +22216,7 @@
         <v>163</v>
       </c>
       <c r="C148" s="54" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D148" t="s">
         <v>1586</v>
@@ -22233,7 +22233,7 @@
         <v>163</v>
       </c>
       <c r="C149" s="71" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D149" t="s">
         <v>1587</v>
@@ -22250,7 +22250,7 @@
         <v>163</v>
       </c>
       <c r="C150" s="72" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D150" t="s">
         <v>1588</v>
@@ -22267,7 +22267,7 @@
         <v>163</v>
       </c>
       <c r="C151" s="54" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D151" t="s">
         <v>1589</v>
@@ -22284,7 +22284,7 @@
         <v>163</v>
       </c>
       <c r="C152" s="72" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D152" t="s">
         <v>1590</v>
@@ -22301,7 +22301,7 @@
         <v>163</v>
       </c>
       <c r="C153" s="54" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D153" t="s">
         <v>1591</v>
@@ -22318,7 +22318,7 @@
         <v>163</v>
       </c>
       <c r="C154" s="54" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D154" t="s">
         <v>1592</v>
@@ -22335,7 +22335,7 @@
         <v>163</v>
       </c>
       <c r="C155" s="54" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D155" t="s">
         <v>1593</v>
@@ -22352,7 +22352,7 @@
         <v>163</v>
       </c>
       <c r="C156" s="71" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D156" t="s">
         <v>1594</v>
@@ -22369,7 +22369,7 @@
         <v>163</v>
       </c>
       <c r="C157" s="72" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D157" t="s">
         <v>1595</v>
@@ -22386,7 +22386,7 @@
         <v>163</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D158" t="s">
         <v>1596</v>
@@ -22403,7 +22403,7 @@
         <v>163</v>
       </c>
       <c r="C159" s="71" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D159" t="s">
         <v>1597</v>
@@ -22420,7 +22420,7 @@
         <v>163</v>
       </c>
       <c r="C160" s="54" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D160" t="s">
         <v>1598</v>
@@ -22437,7 +22437,7 @@
         <v>163</v>
       </c>
       <c r="C161" s="71" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D161" t="s">
         <v>1599</v>
@@ -22454,7 +22454,7 @@
         <v>163</v>
       </c>
       <c r="C162" s="54" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D162" t="s">
         <v>1600</v>
@@ -22471,7 +22471,7 @@
         <v>163</v>
       </c>
       <c r="C163" s="54" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D163" t="s">
         <v>1601</v>
@@ -22488,7 +22488,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="52" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D164" t="s">
         <v>1602</v>
@@ -22505,7 +22505,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="52" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D165" t="s">
         <v>1566</v>
@@ -22522,7 +22522,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="71" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D166" t="s">
         <v>1603</v>
@@ -22539,7 +22539,7 @@
         <v>163</v>
       </c>
       <c r="C167" s="72" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D167" t="s">
         <v>1604</v>
@@ -22556,7 +22556,7 @@
         <v>163</v>
       </c>
       <c r="C168" s="54" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D168" t="s">
         <v>1605</v>
@@ -22573,7 +22573,7 @@
         <v>163</v>
       </c>
       <c r="C169" s="53" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D169" t="s">
         <v>1606</v>
@@ -22590,7 +22590,7 @@
         <v>163</v>
       </c>
       <c r="C170" s="72" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D170" t="s">
         <v>1607</v>
@@ -22607,7 +22607,7 @@
         <v>163</v>
       </c>
       <c r="C171" s="54" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D171" t="s">
         <v>1608</v>
@@ -22624,7 +22624,7 @@
         <v>163</v>
       </c>
       <c r="C172" s="72" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D172" t="s">
         <v>1609</v>
@@ -22641,7 +22641,7 @@
         <v>163</v>
       </c>
       <c r="C173" s="71" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D173" t="s">
         <v>1610</v>
@@ -22658,7 +22658,7 @@
         <v>163</v>
       </c>
       <c r="C174" s="53" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D174" t="s">
         <v>1611</v>
@@ -22675,7 +22675,7 @@
         <v>163</v>
       </c>
       <c r="C175" s="54" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D175" t="s">
         <v>1612</v>
@@ -22692,7 +22692,7 @@
         <v>163</v>
       </c>
       <c r="C176" s="54" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D176" t="s">
         <v>1613</v>
@@ -22709,7 +22709,7 @@
         <v>163</v>
       </c>
       <c r="C177" s="54" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D177" t="s">
         <v>1614</v>
@@ -22726,7 +22726,7 @@
         <v>163</v>
       </c>
       <c r="C178" s="71" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D178" t="s">
         <v>1615</v>
@@ -22743,7 +22743,7 @@
         <v>163</v>
       </c>
       <c r="C179" s="52" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D179" t="s">
         <v>1616</v>
@@ -22760,7 +22760,7 @@
         <v>163</v>
       </c>
       <c r="C180" s="53" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D180" t="s">
         <v>1617</v>
@@ -22777,7 +22777,7 @@
         <v>163</v>
       </c>
       <c r="C181" s="53" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D181" t="s">
         <v>1618</v>
@@ -22794,7 +22794,7 @@
         <v>163</v>
       </c>
       <c r="C182" s="73" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D182" t="s">
         <v>1619</v>
@@ -22811,7 +22811,7 @@
         <v>163</v>
       </c>
       <c r="C183" s="73" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D183" t="s">
         <v>1620</v>
@@ -22828,7 +22828,7 @@
         <v>163</v>
       </c>
       <c r="C184" s="74" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D184" t="s">
         <v>1621</v>
@@ -22845,7 +22845,7 @@
         <v>163</v>
       </c>
       <c r="C185" s="75" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D185" t="s">
         <v>1622</v>
@@ -22862,7 +22862,7 @@
         <v>163</v>
       </c>
       <c r="C186" s="76" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D186" t="s">
         <v>1623</v>
@@ -22879,7 +22879,7 @@
         <v>163</v>
       </c>
       <c r="C187" s="77" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D187" t="s">
         <v>1624</v>
@@ -22896,7 +22896,7 @@
         <v>163</v>
       </c>
       <c r="C188" s="76" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D188" t="s">
         <v>1625</v>
@@ -22913,7 +22913,7 @@
         <v>163</v>
       </c>
       <c r="C189" s="76" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D189" t="s">
         <v>1626</v>
@@ -22930,7 +22930,7 @@
         <v>163</v>
       </c>
       <c r="C190" s="77" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D190" t="s">
         <v>1627</v>
@@ -22947,7 +22947,7 @@
         <v>163</v>
       </c>
       <c r="C191" s="75" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D191" t="s">
         <v>1628</v>
@@ -22964,7 +22964,7 @@
         <v>163</v>
       </c>
       <c r="C192" s="77" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D192" t="s">
         <v>1629</v>
@@ -22981,7 +22981,7 @@
         <v>163</v>
       </c>
       <c r="C193" s="73" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D193" t="s">
         <v>1630</v>
@@ -22998,7 +22998,7 @@
         <v>163</v>
       </c>
       <c r="C194" s="73" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D194" t="s">
         <v>1631</v>
@@ -23015,7 +23015,7 @@
         <v>163</v>
       </c>
       <c r="C195" s="73" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D195" t="s">
         <v>1632</v>
@@ -23032,7 +23032,7 @@
         <v>163</v>
       </c>
       <c r="C196" s="73" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D196" t="s">
         <v>1633</v>
@@ -23049,7 +23049,7 @@
         <v>163</v>
       </c>
       <c r="C197" s="77" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D197" t="s">
         <v>1634</v>
@@ -23066,7 +23066,7 @@
         <v>163</v>
       </c>
       <c r="C198" s="75" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D198" t="s">
         <v>1635</v>
@@ -23083,7 +23083,7 @@
         <v>163</v>
       </c>
       <c r="C199" s="73" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D199" t="s">
         <v>1636</v>
@@ -23100,7 +23100,7 @@
         <v>163</v>
       </c>
       <c r="C200" s="76" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D200" t="s">
         <v>1637</v>
@@ -23117,7 +23117,7 @@
         <v>163</v>
       </c>
       <c r="C201" s="75" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D201" t="s">
         <v>1638</v>
@@ -23134,7 +23134,7 @@
         <v>163</v>
       </c>
       <c r="C202" s="73" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D202" t="s">
         <v>1639</v>
@@ -23168,7 +23168,7 @@
         <v>163</v>
       </c>
       <c r="C204" s="74" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D204" t="s">
         <v>1641</v>
@@ -23185,7 +23185,7 @@
         <v>163</v>
       </c>
       <c r="C205" s="73" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D205" t="s">
         <v>1604</v>
@@ -23202,7 +23202,7 @@
         <v>163</v>
       </c>
       <c r="C206" s="73" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D206" t="s">
         <v>1642</v>
@@ -23219,7 +23219,7 @@
         <v>163</v>
       </c>
       <c r="C207" s="73" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D207" t="s">
         <v>1643</v>
@@ -23236,7 +23236,7 @@
         <v>163</v>
       </c>
       <c r="C208" s="77" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D208" t="s">
         <v>1644</v>
@@ -23253,7 +23253,7 @@
         <v>163</v>
       </c>
       <c r="C209" s="76" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D209" t="s">
         <v>1645</v>
@@ -23270,7 +23270,7 @@
         <v>163</v>
       </c>
       <c r="C210" s="76" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="D210" t="s">
         <v>1646</v>
@@ -23287,7 +23287,7 @@
         <v>163</v>
       </c>
       <c r="C211" s="78" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="D211" t="s">
         <v>1647</v>
@@ -23321,7 +23321,7 @@
         <v>163</v>
       </c>
       <c r="C213" s="79" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="D213" t="s">
         <v>1649</v>
@@ -23338,7 +23338,7 @@
         <v>163</v>
       </c>
       <c r="C214" s="80" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="D214" t="s">
         <v>1650</v>
@@ -23355,7 +23355,7 @@
         <v>163</v>
       </c>
       <c r="C215" s="81" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="D215" t="s">
         <v>1647</v>
@@ -23389,7 +23389,7 @@
         <v>163</v>
       </c>
       <c r="C217" s="81" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="D217" t="s">
         <v>1651</v>
@@ -23406,7 +23406,7 @@
         <v>163</v>
       </c>
       <c r="C218" s="82" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="D218" t="s">
         <v>1652</v>
@@ -23423,7 +23423,7 @@
         <v>163</v>
       </c>
       <c r="C219" s="78" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D219" t="s">
         <v>1653</v>
@@ -23440,7 +23440,7 @@
         <v>163</v>
       </c>
       <c r="C220" s="81" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D220" t="s">
         <v>1654</v>
@@ -23457,7 +23457,7 @@
         <v>163</v>
       </c>
       <c r="C221" s="81" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D221" t="s">
         <v>1465</v>
@@ -23474,7 +23474,7 @@
         <v>163</v>
       </c>
       <c r="C222" s="80" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D222" t="s">
         <v>1655</v>
@@ -23491,7 +23491,7 @@
         <v>163</v>
       </c>
       <c r="C223" s="80" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D223" t="s">
         <v>1656</v>
@@ -23508,7 +23508,7 @@
         <v>163</v>
       </c>
       <c r="C224" s="78" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D224" t="s">
         <v>1657</v>
@@ -23525,7 +23525,7 @@
         <v>163</v>
       </c>
       <c r="C225" s="82" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="D225" t="s">
         <v>1658</v>
@@ -23542,7 +23542,7 @@
         <v>163</v>
       </c>
       <c r="C226" s="82" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D226" t="s">
         <v>1659</v>
@@ -23576,7 +23576,7 @@
         <v>163</v>
       </c>
       <c r="C228" s="81" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="D228" t="s">
         <v>1661</v>
@@ -23593,7 +23593,7 @@
         <v>163</v>
       </c>
       <c r="C229" s="82" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="D229" t="s">
         <v>1662</v>
@@ -23610,7 +23610,7 @@
         <v>163</v>
       </c>
       <c r="C230" s="82" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="D230" t="s">
         <v>1663</v>
@@ -23627,7 +23627,7 @@
         <v>163</v>
       </c>
       <c r="C231" s="79" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="D231" t="s">
         <v>1664</v>
@@ -23644,7 +23644,7 @@
         <v>163</v>
       </c>
       <c r="C232" s="82" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="D232" t="s">
         <v>1665</v>
@@ -23661,7 +23661,7 @@
         <v>163</v>
       </c>
       <c r="C233" s="80" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D233" t="s">
         <v>1666</v>
@@ -23678,7 +23678,7 @@
         <v>163</v>
       </c>
       <c r="C234" s="81" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="D234" t="s">
         <v>1667</v>
@@ -23695,7 +23695,7 @@
         <v>163</v>
       </c>
       <c r="C235" s="81" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="D235" t="s">
         <v>1668</v>
@@ -23706,13 +23706,13 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B236" t="s">
         <v>163</v>
       </c>
       <c r="C236" s="79" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="D236" t="s">
         <v>1669</v>
@@ -23729,7 +23729,7 @@
         <v>163</v>
       </c>
       <c r="C237" s="82" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="D237" t="s">
         <v>1670</v>
@@ -23746,7 +23746,7 @@
         <v>163</v>
       </c>
       <c r="C238" s="82" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="D238" t="s">
         <v>1671</v>
@@ -23763,7 +23763,7 @@
         <v>163</v>
       </c>
       <c r="C239" s="82" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="D239" t="s">
         <v>1672</v>
@@ -23780,7 +23780,7 @@
         <v>163</v>
       </c>
       <c r="C240" s="80" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="D240" t="s">
         <v>1673</v>
@@ -23797,7 +23797,7 @@
         <v>163</v>
       </c>
       <c r="C241" s="82" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="D241" t="s">
         <v>1674</v>
@@ -23814,7 +23814,7 @@
         <v>163</v>
       </c>
       <c r="C242" s="82" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="D242" t="s">
         <v>1675</v>
@@ -23831,7 +23831,7 @@
         <v>163</v>
       </c>
       <c r="C243" s="80" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="D243" t="s">
         <v>1676</v>
@@ -23848,7 +23848,7 @@
         <v>163</v>
       </c>
       <c r="C244" s="79" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="D244" t="s">
         <v>1677</v>
@@ -23865,7 +23865,7 @@
         <v>163</v>
       </c>
       <c r="C245" s="82" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="D245" t="s">
         <v>1678</v>
@@ -23882,7 +23882,7 @@
         <v>163</v>
       </c>
       <c r="C246" s="82" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D246" t="s">
         <v>1608</v>
@@ -23899,7 +23899,7 @@
         <v>163</v>
       </c>
       <c r="C247" s="82" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="D247" t="s">
         <v>1679</v>
@@ -23916,7 +23916,7 @@
         <v>163</v>
       </c>
       <c r="C248" s="79" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="D248" t="s">
         <v>1680</v>
@@ -23933,7 +23933,7 @@
         <v>163</v>
       </c>
       <c r="C249" s="80" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D249" t="s">
         <v>1681</v>
@@ -23950,7 +23950,7 @@
         <v>163</v>
       </c>
       <c r="C250" s="79" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="D250" t="s">
         <v>1682</v>
@@ -23967,7 +23967,7 @@
         <v>163</v>
       </c>
       <c r="C251" s="78" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="D251" t="s">
         <v>1683</v>
@@ -23984,7 +23984,7 @@
         <v>163</v>
       </c>
       <c r="C252" s="81" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="D252" t="s">
         <v>1684</v>
@@ -24001,7 +24001,7 @@
         <v>163</v>
       </c>
       <c r="C253" s="79" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="D253" t="s">
         <v>1685</v>
@@ -24018,7 +24018,7 @@
         <v>163</v>
       </c>
       <c r="C254" s="82" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="D254" t="s">
         <v>1686</v>
@@ -24035,7 +24035,7 @@
         <v>163</v>
       </c>
       <c r="C255" s="82" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="D255" t="s">
         <v>1687</v>
@@ -24052,7 +24052,7 @@
         <v>163</v>
       </c>
       <c r="C256" s="79" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="D256" t="s">
         <v>1688</v>
@@ -24069,7 +24069,7 @@
         <v>163</v>
       </c>
       <c r="C257" s="79" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="D257" t="s">
         <v>1689</v>
@@ -24086,7 +24086,7 @@
         <v>163</v>
       </c>
       <c r="C258" s="83" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="D258" t="s">
         <v>1690</v>
@@ -24103,7 +24103,7 @@
         <v>163</v>
       </c>
       <c r="C259" s="83" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="D259" t="s">
         <v>1691</v>
@@ -24120,7 +24120,7 @@
         <v>163</v>
       </c>
       <c r="C260" s="83" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="D260" t="s">
         <v>1692</v>
@@ -24137,7 +24137,7 @@
         <v>163</v>
       </c>
       <c r="C261" s="83" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="D261" t="s">
         <v>1693</v>
@@ -24154,7 +24154,7 @@
         <v>163</v>
       </c>
       <c r="C262" s="83" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="D262" t="s">
         <v>1694</v>
@@ -24171,7 +24171,7 @@
         <v>163</v>
       </c>
       <c r="C263" s="83" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="D263" t="s">
         <v>1695</v>
@@ -24188,7 +24188,7 @@
         <v>163</v>
       </c>
       <c r="C264" s="79" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="D264" t="s">
         <v>1696</v>
@@ -24205,7 +24205,7 @@
         <v>163</v>
       </c>
       <c r="C265" s="83" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="D265" t="s">
         <v>1697</v>
@@ -24222,7 +24222,7 @@
         <v>163</v>
       </c>
       <c r="C266" s="83" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="D266" t="s">
         <v>1698</v>
@@ -24239,7 +24239,7 @@
         <v>163</v>
       </c>
       <c r="C267" s="83" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="D267" t="s">
         <v>1699</v>
@@ -24256,7 +24256,7 @@
         <v>163</v>
       </c>
       <c r="C268" s="83" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="D268" t="s">
         <v>1700</v>
@@ -24273,7 +24273,7 @@
         <v>163</v>
       </c>
       <c r="C269" s="83" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="D269" t="s">
         <v>1701</v>
@@ -24290,7 +24290,7 @@
         <v>163</v>
       </c>
       <c r="C270" s="83" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="D270" t="s">
         <v>1702</v>
@@ -24307,7 +24307,7 @@
         <v>163</v>
       </c>
       <c r="C271" s="83" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="D271" t="s">
         <v>1703</v>
@@ -24324,7 +24324,7 @@
         <v>163</v>
       </c>
       <c r="C272" s="83" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D272" t="s">
         <v>1704</v>
@@ -24341,7 +24341,7 @@
         <v>163</v>
       </c>
       <c r="C273" s="83" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="D273" t="s">
         <v>1705</v>
@@ -24375,7 +24375,7 @@
         <v>163</v>
       </c>
       <c r="C275" s="83" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="D275" t="s">
         <v>1707</v>
@@ -24392,7 +24392,7 @@
         <v>163</v>
       </c>
       <c r="C276" s="83" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="D276" t="s">
         <v>1708</v>
@@ -24409,7 +24409,7 @@
         <v>163</v>
       </c>
       <c r="C277" s="79" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="D277" t="s">
         <v>1709</v>
@@ -24426,7 +24426,7 @@
         <v>163</v>
       </c>
       <c r="C278" s="79" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="D278" t="s">
         <v>1710</v>
@@ -24443,7 +24443,7 @@
         <v>163</v>
       </c>
       <c r="C279" s="79" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="D279" t="s">
         <v>1711</v>
@@ -24460,7 +24460,7 @@
         <v>163</v>
       </c>
       <c r="C280" s="79" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="D280" t="s">
         <v>1712</v>
@@ -24477,7 +24477,7 @@
         <v>163</v>
       </c>
       <c r="C281" s="79" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="D281" t="s">
         <v>1681</v>
